--- a/Financials/Yearly/CDEVY_YR_FIN.xlsx
+++ b/Financials/Yearly/CDEVY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D1F016-124B-4DBC-A06A-EE5317FCD0B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDEVY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2804000</v>
+        <v>3113500</v>
       </c>
       <c r="E8" s="3">
-        <v>2860300</v>
+        <v>2823500</v>
       </c>
       <c r="F8" s="3">
-        <v>2419900</v>
+        <v>2879700</v>
       </c>
       <c r="G8" s="3">
-        <v>2756700</v>
+        <v>2436300</v>
       </c>
       <c r="H8" s="3">
-        <v>2353400</v>
+        <v>2775300</v>
       </c>
       <c r="I8" s="3">
-        <v>2456200</v>
+        <v>2369400</v>
       </c>
       <c r="J8" s="3">
+        <v>2472900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2402600</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1570000</v>
+        <v>1702200</v>
       </c>
       <c r="E9" s="3">
-        <v>1572800</v>
+        <v>1581600</v>
       </c>
       <c r="F9" s="3">
-        <v>1207000</v>
+        <v>1583500</v>
       </c>
       <c r="G9" s="3">
-        <v>1561100</v>
+        <v>1215100</v>
       </c>
       <c r="H9" s="3">
-        <v>1136900</v>
+        <v>1571700</v>
       </c>
       <c r="I9" s="3">
-        <v>1239700</v>
+        <v>1144600</v>
       </c>
       <c r="J9" s="3">
+        <v>1248100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1104100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1234000</v>
+        <v>1411300</v>
       </c>
       <c r="E10" s="3">
-        <v>1287500</v>
+        <v>1241800</v>
       </c>
       <c r="F10" s="3">
-        <v>1212900</v>
+        <v>1296200</v>
       </c>
       <c r="G10" s="3">
-        <v>1195500</v>
+        <v>1221100</v>
       </c>
       <c r="H10" s="3">
-        <v>1216500</v>
+        <v>1203600</v>
       </c>
       <c r="I10" s="3">
-        <v>1216600</v>
+        <v>1224800</v>
       </c>
       <c r="J10" s="3">
+        <v>1224800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1298500</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-10700</v>
+        <v>72400</v>
       </c>
       <c r="E14" s="3">
-        <v>-77300</v>
+        <v>-8200</v>
       </c>
       <c r="F14" s="3">
-        <v>54200</v>
+        <v>-77800</v>
       </c>
       <c r="G14" s="3">
-        <v>-238900</v>
+        <v>54500</v>
       </c>
       <c r="H14" s="3">
+        <v>-240500</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>30400</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>155300</v>
+        <v>158600</v>
       </c>
       <c r="E15" s="3">
-        <v>159700</v>
+        <v>155800</v>
       </c>
       <c r="F15" s="3">
-        <v>154300</v>
+        <v>160800</v>
       </c>
       <c r="G15" s="3">
-        <v>143800</v>
+        <v>155400</v>
       </c>
       <c r="H15" s="3">
-        <v>135300</v>
+        <v>144800</v>
       </c>
       <c r="I15" s="3">
-        <v>108600</v>
+        <v>136300</v>
       </c>
       <c r="J15" s="3">
+        <v>109300</v>
+      </c>
+      <c r="K15" s="3">
         <v>97700</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2218300</v>
+        <v>2446500</v>
       </c>
       <c r="E17" s="3">
-        <v>2184200</v>
+        <v>2235700</v>
       </c>
       <c r="F17" s="3">
-        <v>1723600</v>
+        <v>2199000</v>
       </c>
       <c r="G17" s="3">
-        <v>2001800</v>
+        <v>1735300</v>
       </c>
       <c r="H17" s="3">
-        <v>1644400</v>
+        <v>2015400</v>
       </c>
       <c r="I17" s="3">
-        <v>1782200</v>
+        <v>1655600</v>
       </c>
       <c r="J17" s="3">
+        <v>1794200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1576900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>585800</v>
+        <v>667000</v>
       </c>
       <c r="E18" s="3">
-        <v>676100</v>
+        <v>587800</v>
       </c>
       <c r="F18" s="3">
-        <v>696300</v>
+        <v>680700</v>
       </c>
       <c r="G18" s="3">
-        <v>754900</v>
+        <v>701000</v>
       </c>
       <c r="H18" s="3">
-        <v>709000</v>
+        <v>760000</v>
       </c>
       <c r="I18" s="3">
-        <v>674100</v>
+        <v>713800</v>
       </c>
       <c r="J18" s="3">
+        <v>678600</v>
+      </c>
+      <c r="K18" s="3">
         <v>825700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14200</v>
+        <v>75800</v>
       </c>
       <c r="E20" s="3">
+        <v>64700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6700</v>
       </c>
-      <c r="F20" s="3">
-        <v>106400</v>
-      </c>
       <c r="G20" s="3">
-        <v>62600</v>
+        <v>107100</v>
       </c>
       <c r="H20" s="3">
-        <v>47000</v>
+        <v>63000</v>
       </c>
       <c r="I20" s="3">
-        <v>50500</v>
+        <v>47300</v>
       </c>
       <c r="J20" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K20" s="3">
         <v>24800</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>729700</v>
+        <v>904300</v>
       </c>
       <c r="E21" s="3">
-        <v>831900</v>
+        <v>811300</v>
       </c>
       <c r="F21" s="3">
-        <v>959800</v>
+        <v>837700</v>
       </c>
       <c r="G21" s="3">
-        <v>963900</v>
+        <v>966500</v>
       </c>
       <c r="H21" s="3">
-        <v>893700</v>
+        <v>970500</v>
       </c>
       <c r="I21" s="3">
-        <v>833200</v>
+        <v>899900</v>
       </c>
       <c r="J21" s="3">
+        <v>838900</v>
+      </c>
+      <c r="K21" s="3">
         <v>948100</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>89600</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3">
-        <v>81000</v>
-      </c>
       <c r="G22" s="3">
-        <v>82300</v>
+        <v>81500</v>
       </c>
       <c r="H22" s="3">
-        <v>61600</v>
+        <v>82800</v>
       </c>
       <c r="I22" s="3">
-        <v>21300</v>
+        <v>62000</v>
       </c>
       <c r="J22" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K22" s="3">
         <v>18100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>571600</v>
+        <v>645600</v>
       </c>
       <c r="E23" s="3">
-        <v>669400</v>
+        <v>562800</v>
       </c>
       <c r="F23" s="3">
-        <v>721700</v>
+        <v>673900</v>
       </c>
       <c r="G23" s="3">
-        <v>735100</v>
+        <v>726600</v>
       </c>
       <c r="H23" s="3">
-        <v>694300</v>
+        <v>740100</v>
       </c>
       <c r="I23" s="3">
-        <v>703300</v>
+        <v>699000</v>
       </c>
       <c r="J23" s="3">
+        <v>708000</v>
+      </c>
+      <c r="K23" s="3">
         <v>832300</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>77300</v>
+        <v>158400</v>
       </c>
       <c r="E24" s="3">
-        <v>110900</v>
+        <v>78100</v>
       </c>
       <c r="F24" s="3">
-        <v>87400</v>
+        <v>111700</v>
       </c>
       <c r="G24" s="3">
-        <v>69600</v>
+        <v>88000</v>
       </c>
       <c r="H24" s="3">
-        <v>50900</v>
+        <v>70100</v>
       </c>
       <c r="I24" s="3">
-        <v>73200</v>
+        <v>51300</v>
       </c>
       <c r="J24" s="3">
+        <v>73700</v>
+      </c>
+      <c r="K24" s="3">
         <v>128000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>494300</v>
+        <v>487200</v>
       </c>
       <c r="E26" s="3">
-        <v>558500</v>
+        <v>484700</v>
       </c>
       <c r="F26" s="3">
-        <v>634300</v>
+        <v>562300</v>
       </c>
       <c r="G26" s="3">
-        <v>665500</v>
+        <v>638600</v>
       </c>
       <c r="H26" s="3">
-        <v>643400</v>
+        <v>670000</v>
       </c>
       <c r="I26" s="3">
-        <v>630100</v>
+        <v>647800</v>
       </c>
       <c r="J26" s="3">
+        <v>634400</v>
+      </c>
+      <c r="K26" s="3">
         <v>704400</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>384700</v>
+        <v>401400</v>
       </c>
       <c r="E27" s="3">
-        <v>469000</v>
+        <v>375500</v>
       </c>
       <c r="F27" s="3">
-        <v>557000</v>
+        <v>472100</v>
       </c>
       <c r="G27" s="3">
-        <v>554200</v>
+        <v>560700</v>
       </c>
       <c r="H27" s="3">
-        <v>493100</v>
+        <v>558000</v>
       </c>
       <c r="I27" s="3">
-        <v>487400</v>
+        <v>496500</v>
       </c>
       <c r="J27" s="3">
+        <v>490700</v>
+      </c>
+      <c r="K27" s="3">
         <v>575400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14200</v>
+        <v>-75800</v>
       </c>
       <c r="E32" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="F32" s="3">
         <v>6700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-106400</v>
-      </c>
       <c r="G32" s="3">
-        <v>-62600</v>
+        <v>-107100</v>
       </c>
       <c r="H32" s="3">
-        <v>-47000</v>
+        <v>-63000</v>
       </c>
       <c r="I32" s="3">
-        <v>-50500</v>
+        <v>-47300</v>
       </c>
       <c r="J32" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-24800</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>384700</v>
+        <v>401400</v>
       </c>
       <c r="E33" s="3">
-        <v>469000</v>
+        <v>375500</v>
       </c>
       <c r="F33" s="3">
-        <v>557000</v>
+        <v>472100</v>
       </c>
       <c r="G33" s="3">
-        <v>554200</v>
+        <v>560700</v>
       </c>
       <c r="H33" s="3">
-        <v>493100</v>
+        <v>558000</v>
       </c>
       <c r="I33" s="3">
-        <v>487400</v>
+        <v>496500</v>
       </c>
       <c r="J33" s="3">
+        <v>490700</v>
+      </c>
+      <c r="K33" s="3">
         <v>575400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>384700</v>
+        <v>401400</v>
       </c>
       <c r="E35" s="3">
-        <v>469000</v>
+        <v>375500</v>
       </c>
       <c r="F35" s="3">
-        <v>557000</v>
+        <v>472100</v>
       </c>
       <c r="G35" s="3">
-        <v>554200</v>
+        <v>560700</v>
       </c>
       <c r="H35" s="3">
-        <v>493100</v>
+        <v>558000</v>
       </c>
       <c r="I35" s="3">
-        <v>487400</v>
+        <v>496500</v>
       </c>
       <c r="J35" s="3">
+        <v>490700</v>
+      </c>
+      <c r="K35" s="3">
         <v>575400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3683800</v>
+        <v>409400</v>
       </c>
       <c r="E41" s="3">
-        <v>514200</v>
+        <v>3708800</v>
       </c>
       <c r="F41" s="3">
-        <v>530900</v>
+        <v>3225900</v>
       </c>
       <c r="G41" s="3">
-        <v>458000</v>
+        <v>534500</v>
       </c>
       <c r="H41" s="3">
-        <v>2669800</v>
+        <v>461100</v>
       </c>
       <c r="I41" s="3">
-        <v>266700</v>
+        <v>2687800</v>
       </c>
       <c r="J41" s="3">
+        <v>268500</v>
+      </c>
+      <c r="K41" s="3">
         <v>360300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1572700</v>
+        <v>1031100</v>
       </c>
       <c r="E42" s="3">
-        <v>2110100</v>
+        <v>1583300</v>
       </c>
       <c r="F42" s="3">
-        <v>1808500</v>
+        <v>2124400</v>
       </c>
       <c r="G42" s="3">
-        <v>2148800</v>
+        <v>1820700</v>
       </c>
       <c r="H42" s="3">
-        <v>1192500</v>
+        <v>2163400</v>
       </c>
       <c r="I42" s="3">
-        <v>1127000</v>
+        <v>1200500</v>
       </c>
       <c r="J42" s="3">
+        <v>1134600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1300200</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1368800</v>
+        <v>715500</v>
       </c>
       <c r="E43" s="3">
-        <v>792500</v>
+        <v>1502600</v>
       </c>
       <c r="F43" s="3">
-        <v>1234100</v>
+        <v>1071600</v>
       </c>
       <c r="G43" s="3">
-        <v>1027800</v>
+        <v>1242400</v>
       </c>
       <c r="H43" s="3">
-        <v>2342400</v>
+        <v>1034700</v>
       </c>
       <c r="I43" s="3">
-        <v>827200</v>
+        <v>2358300</v>
       </c>
       <c r="J43" s="3">
+        <v>832800</v>
+      </c>
+      <c r="K43" s="3">
         <v>834600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3359200</v>
+        <v>4215600</v>
       </c>
       <c r="E44" s="3">
-        <v>3823600</v>
+        <v>3184500</v>
       </c>
       <c r="F44" s="3">
-        <v>4047300</v>
+        <v>3524600</v>
       </c>
       <c r="G44" s="3">
-        <v>3518500</v>
+        <v>4074700</v>
       </c>
       <c r="H44" s="3">
-        <v>3174900</v>
+        <v>3542300</v>
       </c>
       <c r="I44" s="3">
-        <v>3163600</v>
+        <v>3196400</v>
       </c>
       <c r="J44" s="3">
+        <v>3185000</v>
+      </c>
+      <c r="K44" s="3">
         <v>2382200</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>478800</v>
+        <v>337800</v>
       </c>
       <c r="E45" s="3">
-        <v>142500</v>
+        <v>639900</v>
       </c>
       <c r="F45" s="3">
-        <v>353500</v>
+        <v>215600</v>
       </c>
       <c r="G45" s="3">
-        <v>412000</v>
+        <v>355900</v>
       </c>
       <c r="H45" s="3">
-        <v>374700</v>
+        <v>414800</v>
       </c>
       <c r="I45" s="3">
-        <v>326600</v>
+        <v>377300</v>
       </c>
       <c r="J45" s="3">
+        <v>328800</v>
+      </c>
+      <c r="K45" s="3">
         <v>312000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6939100</v>
+        <v>6709300</v>
       </c>
       <c r="E46" s="3">
-        <v>7382900</v>
+        <v>6922300</v>
       </c>
       <c r="F46" s="3">
-        <v>7974300</v>
+        <v>7391700</v>
       </c>
       <c r="G46" s="3">
-        <v>7565100</v>
+        <v>8028300</v>
       </c>
       <c r="H46" s="3">
-        <v>6398500</v>
+        <v>7616300</v>
       </c>
       <c r="I46" s="3">
-        <v>5711100</v>
+        <v>6441900</v>
       </c>
       <c r="J46" s="3">
+        <v>5749700</v>
+      </c>
+      <c r="K46" s="3">
         <v>5189400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1595100</v>
+        <v>1933900</v>
       </c>
       <c r="E47" s="3">
-        <v>1364000</v>
+        <v>1578100</v>
       </c>
       <c r="F47" s="3">
-        <v>1103800</v>
+        <v>1331300</v>
       </c>
       <c r="G47" s="3">
-        <v>884500</v>
+        <v>1111300</v>
       </c>
       <c r="H47" s="3">
-        <v>826600</v>
+        <v>890500</v>
       </c>
       <c r="I47" s="3">
-        <v>1018400</v>
+        <v>832200</v>
       </c>
       <c r="J47" s="3">
+        <v>1025300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1139200</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10920300</v>
+        <v>6455200</v>
       </c>
       <c r="E48" s="3">
-        <v>5479600</v>
+        <v>10983300</v>
       </c>
       <c r="F48" s="3">
-        <v>5682300</v>
+        <v>5504700</v>
       </c>
       <c r="G48" s="3">
-        <v>5879200</v>
+        <v>5720800</v>
       </c>
       <c r="H48" s="3">
-        <v>11074100</v>
+        <v>5919000</v>
       </c>
       <c r="I48" s="3">
-        <v>4629900</v>
+        <v>11149100</v>
       </c>
       <c r="J48" s="3">
+        <v>4661300</v>
+      </c>
+      <c r="K48" s="3">
         <v>4555700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F49" s="3">
         <v>2100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3200</v>
       </c>
-      <c r="H49" s="3">
-        <v>3300</v>
-      </c>
       <c r="I49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J49" s="3">
         <v>3100</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>634200</v>
+        <v>300400</v>
       </c>
       <c r="E52" s="3">
-        <v>270800</v>
+        <v>647100</v>
       </c>
       <c r="F52" s="3">
-        <v>116200</v>
+        <v>280100</v>
       </c>
       <c r="G52" s="3">
-        <v>96500</v>
+        <v>116900</v>
       </c>
       <c r="H52" s="3">
-        <v>102600</v>
+        <v>97100</v>
       </c>
       <c r="I52" s="3">
-        <v>68800</v>
+        <v>103300</v>
       </c>
       <c r="J52" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K52" s="3">
         <v>74100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14270600</v>
+        <v>15400100</v>
       </c>
       <c r="E54" s="3">
-        <v>14499400</v>
+        <v>14278300</v>
       </c>
       <c r="F54" s="3">
-        <v>14881100</v>
+        <v>14505100</v>
       </c>
       <c r="G54" s="3">
-        <v>14428500</v>
+        <v>14981900</v>
       </c>
       <c r="H54" s="3">
-        <v>12856200</v>
+        <v>14526200</v>
       </c>
       <c r="I54" s="3">
-        <v>11431400</v>
+        <v>12943200</v>
       </c>
       <c r="J54" s="3">
+        <v>11508800</v>
+      </c>
+      <c r="K54" s="3">
         <v>10958400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1296500</v>
+        <v>108400</v>
       </c>
       <c r="E57" s="3">
-        <v>128900</v>
+        <v>1305200</v>
       </c>
       <c r="F57" s="3">
-        <v>164500</v>
+        <v>129800</v>
       </c>
       <c r="G57" s="3">
-        <v>125700</v>
+        <v>165700</v>
       </c>
       <c r="H57" s="3">
-        <v>1093900</v>
+        <v>126600</v>
       </c>
       <c r="I57" s="3">
-        <v>198800</v>
+        <v>1101300</v>
       </c>
       <c r="J57" s="3">
+        <v>200100</v>
+      </c>
+      <c r="K57" s="3">
         <v>155000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1017900</v>
+        <v>1099700</v>
       </c>
       <c r="E58" s="3">
-        <v>1406700</v>
+        <v>1024800</v>
       </c>
       <c r="F58" s="3">
-        <v>1506900</v>
+        <v>1416300</v>
       </c>
       <c r="G58" s="3">
-        <v>1736700</v>
+        <v>1517100</v>
       </c>
       <c r="H58" s="3">
-        <v>1539700</v>
+        <v>1748400</v>
       </c>
       <c r="I58" s="3">
-        <v>731000</v>
+        <v>1550100</v>
       </c>
       <c r="J58" s="3">
+        <v>736000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1081400</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1250000</v>
+        <v>1080400</v>
       </c>
       <c r="E59" s="3">
-        <v>1144500</v>
+        <v>1567200</v>
       </c>
       <c r="F59" s="3">
-        <v>1135000</v>
+        <v>1468700</v>
       </c>
       <c r="G59" s="3">
-        <v>1035900</v>
+        <v>1142700</v>
       </c>
       <c r="H59" s="3">
-        <v>949600</v>
+        <v>1042900</v>
       </c>
       <c r="I59" s="3">
-        <v>779700</v>
+        <v>956000</v>
       </c>
       <c r="J59" s="3">
+        <v>785000</v>
+      </c>
+      <c r="K59" s="3">
         <v>828400</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2389400</v>
+        <v>2288600</v>
       </c>
       <c r="E60" s="3">
-        <v>2680100</v>
+        <v>2446100</v>
       </c>
       <c r="F60" s="3">
-        <v>2806500</v>
+        <v>2744300</v>
       </c>
       <c r="G60" s="3">
-        <v>2898300</v>
+        <v>2825500</v>
       </c>
       <c r="H60" s="3">
-        <v>1790600</v>
+        <v>2917900</v>
       </c>
       <c r="I60" s="3">
-        <v>1709500</v>
+        <v>1802700</v>
       </c>
       <c r="J60" s="3">
+        <v>1721100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2064800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2750600</v>
+        <v>3737500</v>
       </c>
       <c r="E61" s="3">
-        <v>2896600</v>
+        <v>2769200</v>
       </c>
       <c r="F61" s="3">
-        <v>3348500</v>
+        <v>2916200</v>
       </c>
       <c r="G61" s="3">
-        <v>3271000</v>
+        <v>3371100</v>
       </c>
       <c r="H61" s="3">
-        <v>3222900</v>
+        <v>3293200</v>
       </c>
       <c r="I61" s="3">
-        <v>2540500</v>
+        <v>3244700</v>
       </c>
       <c r="J61" s="3">
+        <v>2557700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2145400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>734600</v>
+        <v>323800</v>
       </c>
       <c r="E62" s="3">
-        <v>567200</v>
+        <v>802900</v>
       </c>
       <c r="F62" s="3">
-        <v>513800</v>
+        <v>847800</v>
       </c>
       <c r="G62" s="3">
-        <v>367200</v>
+        <v>517300</v>
       </c>
       <c r="H62" s="3">
-        <v>441400</v>
+        <v>369700</v>
       </c>
       <c r="I62" s="3">
-        <v>401600</v>
+        <v>444400</v>
       </c>
       <c r="J62" s="3">
+        <v>404300</v>
+      </c>
+      <c r="K62" s="3">
         <v>379300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7266100</v>
+        <v>7996600</v>
       </c>
       <c r="E66" s="3">
-        <v>7692700</v>
+        <v>7353600</v>
       </c>
       <c r="F66" s="3">
-        <v>8292700</v>
+        <v>7789700</v>
       </c>
       <c r="G66" s="3">
-        <v>8269000</v>
+        <v>8348800</v>
       </c>
       <c r="H66" s="3">
-        <v>7193800</v>
+        <v>8325000</v>
       </c>
       <c r="I66" s="3">
-        <v>6082300</v>
+        <v>7242500</v>
       </c>
       <c r="J66" s="3">
+        <v>6123500</v>
+      </c>
+      <c r="K66" s="3">
         <v>5958500</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,36 +2413,42 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>241800</v>
+        <v>243500</v>
       </c>
       <c r="E70" s="3">
-        <v>241800</v>
+        <v>243500</v>
       </c>
       <c r="F70" s="3">
-        <v>241800</v>
+        <v>243500</v>
       </c>
       <c r="G70" s="3">
-        <v>241800</v>
+        <v>243500</v>
       </c>
       <c r="H70" s="3">
-        <v>241800</v>
+        <v>243500</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>243500</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5627000</v>
+        <v>6038700</v>
       </c>
       <c r="E72" s="3">
-        <v>5689000</v>
+        <v>5513500</v>
       </c>
       <c r="F72" s="3">
-        <v>5362400</v>
+        <v>5237000</v>
       </c>
       <c r="G72" s="3">
-        <v>4927400</v>
+        <v>5398700</v>
       </c>
       <c r="H72" s="3">
-        <v>8659900</v>
+        <v>4960800</v>
       </c>
       <c r="I72" s="3">
-        <v>4170300</v>
+        <v>8718600</v>
       </c>
       <c r="J72" s="3">
+        <v>4198500</v>
+      </c>
+      <c r="K72" s="3">
         <v>3769000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6762800</v>
+        <v>7160000</v>
       </c>
       <c r="E76" s="3">
-        <v>6564900</v>
+        <v>6681200</v>
       </c>
       <c r="F76" s="3">
-        <v>6346600</v>
+        <v>6471900</v>
       </c>
       <c r="G76" s="3">
-        <v>5917700</v>
+        <v>6389500</v>
       </c>
       <c r="H76" s="3">
-        <v>5420600</v>
+        <v>5957700</v>
       </c>
       <c r="I76" s="3">
-        <v>5349100</v>
+        <v>5457200</v>
       </c>
       <c r="J76" s="3">
+        <v>5385300</v>
+      </c>
+      <c r="K76" s="3">
         <v>4999900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>384700</v>
+        <v>401400</v>
       </c>
       <c r="E81" s="3">
-        <v>469000</v>
+        <v>375500</v>
       </c>
       <c r="F81" s="3">
-        <v>557000</v>
+        <v>472100</v>
       </c>
       <c r="G81" s="3">
-        <v>554200</v>
+        <v>560700</v>
       </c>
       <c r="H81" s="3">
-        <v>493100</v>
+        <v>558000</v>
       </c>
       <c r="I81" s="3">
-        <v>487400</v>
+        <v>496500</v>
       </c>
       <c r="J81" s="3">
+        <v>490700</v>
+      </c>
+      <c r="K81" s="3">
         <v>575400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>158200</v>
+        <v>161400</v>
       </c>
       <c r="E83" s="3">
-        <v>162500</v>
+        <v>158700</v>
       </c>
       <c r="F83" s="3">
-        <v>157200</v>
+        <v>163600</v>
       </c>
       <c r="G83" s="3">
-        <v>146500</v>
+        <v>158300</v>
       </c>
       <c r="H83" s="3">
-        <v>137800</v>
+        <v>147500</v>
       </c>
       <c r="I83" s="3">
-        <v>108600</v>
+        <v>138700</v>
       </c>
       <c r="J83" s="3">
+        <v>109300</v>
+      </c>
+      <c r="K83" s="3">
         <v>97700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>788300</v>
+        <v>-442100</v>
       </c>
       <c r="E89" s="3">
-        <v>864900</v>
+        <v>801900</v>
       </c>
       <c r="F89" s="3">
-        <v>57000</v>
+        <v>870800</v>
       </c>
       <c r="G89" s="3">
-        <v>214000</v>
+        <v>57400</v>
       </c>
       <c r="H89" s="3">
-        <v>495600</v>
+        <v>215400</v>
       </c>
       <c r="I89" s="3">
-        <v>47800</v>
+        <v>499000</v>
       </c>
       <c r="J89" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K89" s="3">
         <v>719900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-80200</v>
+        <v>-148300</v>
       </c>
       <c r="E91" s="3">
-        <v>-150500</v>
+        <v>-80600</v>
       </c>
       <c r="F91" s="3">
-        <v>-167500</v>
+        <v>-151100</v>
       </c>
       <c r="G91" s="3">
-        <v>-614500</v>
+        <v>-168700</v>
       </c>
       <c r="H91" s="3">
-        <v>-181000</v>
+        <v>-618400</v>
       </c>
       <c r="I91" s="3">
-        <v>-188700</v>
+        <v>-182000</v>
       </c>
       <c r="J91" s="3">
+        <v>-189600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-288700</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-66600</v>
+        <v>-1274700</v>
       </c>
       <c r="E94" s="3">
-        <v>232900</v>
+        <v>-62900</v>
       </c>
       <c r="F94" s="3">
-        <v>381100</v>
+        <v>234500</v>
       </c>
       <c r="G94" s="3">
-        <v>-30600</v>
+        <v>383700</v>
       </c>
       <c r="H94" s="3">
-        <v>-8100</v>
+        <v>-30800</v>
       </c>
       <c r="I94" s="3">
-        <v>-258500</v>
+        <v>-8200</v>
       </c>
       <c r="J94" s="3">
+        <v>-260200</v>
+      </c>
+      <c r="K94" s="3">
         <v>38600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-178600</v>
+        <v>-210400</v>
       </c>
       <c r="E96" s="3">
-        <v>-173900</v>
+        <v>-179800</v>
       </c>
       <c r="F96" s="3">
-        <v>-198600</v>
+        <v>-175100</v>
       </c>
       <c r="G96" s="3">
-        <v>-201300</v>
+        <v>-200000</v>
       </c>
       <c r="H96" s="3">
-        <v>-234400</v>
+        <v>-202700</v>
       </c>
       <c r="I96" s="3">
-        <v>-133000</v>
+        <v>-236000</v>
       </c>
       <c r="J96" s="3">
+        <v>-133900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-181200</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-675300</v>
+        <v>661800</v>
       </c>
       <c r="E100" s="3">
-        <v>-982300</v>
+        <v>-692200</v>
       </c>
       <c r="F100" s="3">
-        <v>-669600</v>
+        <v>-988900</v>
       </c>
       <c r="G100" s="3">
-        <v>541000</v>
+        <v>-674100</v>
       </c>
       <c r="H100" s="3">
-        <v>-121600</v>
+        <v>544700</v>
       </c>
       <c r="I100" s="3">
-        <v>-43400</v>
+        <v>-122400</v>
       </c>
       <c r="J100" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-307200</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22700</v>
+        <v>-4300</v>
       </c>
       <c r="E101" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5100</v>
       </c>
-      <c r="G101" s="3">
-        <v>12700</v>
-      </c>
       <c r="H101" s="3">
-        <v>11900</v>
+        <v>12800</v>
       </c>
       <c r="I101" s="3">
-        <v>-9900</v>
+        <v>12000</v>
       </c>
       <c r="J101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23600</v>
+        <v>-1059300</v>
       </c>
       <c r="E102" s="3">
-        <v>110700</v>
+        <v>23800</v>
       </c>
       <c r="F102" s="3">
-        <v>-226400</v>
+        <v>111500</v>
       </c>
       <c r="G102" s="3">
-        <v>737000</v>
+        <v>-228000</v>
       </c>
       <c r="H102" s="3">
-        <v>377800</v>
+        <v>742000</v>
       </c>
       <c r="I102" s="3">
-        <v>-264000</v>
+        <v>380400</v>
       </c>
       <c r="J102" s="3">
+        <v>-265800</v>
+      </c>
+      <c r="K102" s="3">
         <v>450100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/CDEVY_YR_FIN.xlsx
+++ b/Financials/Yearly/CDEVY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D1F016-124B-4DBC-A06A-EE5317FCD0B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CDEVY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3113500</v>
+        <v>3047700</v>
       </c>
       <c r="E8" s="3">
-        <v>2823500</v>
+        <v>2763800</v>
       </c>
       <c r="F8" s="3">
-        <v>2879700</v>
+        <v>2818800</v>
       </c>
       <c r="G8" s="3">
-        <v>2436300</v>
+        <v>2384800</v>
       </c>
       <c r="H8" s="3">
-        <v>2775300</v>
+        <v>2716700</v>
       </c>
       <c r="I8" s="3">
-        <v>2369400</v>
+        <v>2319300</v>
       </c>
       <c r="J8" s="3">
-        <v>2472900</v>
+        <v>2420600</v>
       </c>
       <c r="K8" s="3">
         <v>2402600</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1702200</v>
+        <v>1666200</v>
       </c>
       <c r="E9" s="3">
-        <v>1581600</v>
+        <v>1548200</v>
       </c>
       <c r="F9" s="3">
-        <v>1583500</v>
+        <v>1550000</v>
       </c>
       <c r="G9" s="3">
-        <v>1215100</v>
+        <v>1189400</v>
       </c>
       <c r="H9" s="3">
-        <v>1571700</v>
+        <v>1538500</v>
       </c>
       <c r="I9" s="3">
-        <v>1144600</v>
+        <v>1120400</v>
       </c>
       <c r="J9" s="3">
-        <v>1248100</v>
+        <v>1221700</v>
       </c>
       <c r="K9" s="3">
         <v>1104100</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1411300</v>
+        <v>1381500</v>
       </c>
       <c r="E10" s="3">
-        <v>1241800</v>
+        <v>1215600</v>
       </c>
       <c r="F10" s="3">
-        <v>1296200</v>
+        <v>1268800</v>
       </c>
       <c r="G10" s="3">
-        <v>1221100</v>
+        <v>1195300</v>
       </c>
       <c r="H10" s="3">
-        <v>1203600</v>
+        <v>1178200</v>
       </c>
       <c r="I10" s="3">
-        <v>1224800</v>
+        <v>1198900</v>
       </c>
       <c r="J10" s="3">
-        <v>1224800</v>
+        <v>1198900</v>
       </c>
       <c r="K10" s="3">
         <v>1298500</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>72400</v>
+        <v>70800</v>
       </c>
       <c r="E14" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="F14" s="3">
-        <v>-77800</v>
+        <v>-76100</v>
       </c>
       <c r="G14" s="3">
-        <v>54500</v>
+        <v>53400</v>
       </c>
       <c r="H14" s="3">
-        <v>-240500</v>
+        <v>-235400</v>
       </c>
       <c r="I14" s="3">
         <v>-1200</v>
       </c>
       <c r="J14" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="K14" s="3">
         <v>30400</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>158600</v>
+        <v>155200</v>
       </c>
       <c r="E15" s="3">
-        <v>155800</v>
+        <v>152500</v>
       </c>
       <c r="F15" s="3">
-        <v>160800</v>
+        <v>157400</v>
       </c>
       <c r="G15" s="3">
-        <v>155400</v>
+        <v>152100</v>
       </c>
       <c r="H15" s="3">
-        <v>144800</v>
+        <v>141700</v>
       </c>
       <c r="I15" s="3">
-        <v>136300</v>
+        <v>133400</v>
       </c>
       <c r="J15" s="3">
-        <v>109300</v>
+        <v>107000</v>
       </c>
       <c r="K15" s="3">
         <v>97700</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2446500</v>
+        <v>2394800</v>
       </c>
       <c r="E17" s="3">
-        <v>2235700</v>
+        <v>2188400</v>
       </c>
       <c r="F17" s="3">
-        <v>2199000</v>
+        <v>2152500</v>
       </c>
       <c r="G17" s="3">
-        <v>1735300</v>
+        <v>1698600</v>
       </c>
       <c r="H17" s="3">
-        <v>2015400</v>
+        <v>1972800</v>
       </c>
       <c r="I17" s="3">
-        <v>1655600</v>
+        <v>1620600</v>
       </c>
       <c r="J17" s="3">
-        <v>1794200</v>
+        <v>1756300</v>
       </c>
       <c r="K17" s="3">
         <v>1576900</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>667000</v>
+        <v>652900</v>
       </c>
       <c r="E18" s="3">
-        <v>587800</v>
+        <v>575300</v>
       </c>
       <c r="F18" s="3">
-        <v>680700</v>
+        <v>666300</v>
       </c>
       <c r="G18" s="3">
-        <v>701000</v>
+        <v>686200</v>
       </c>
       <c r="H18" s="3">
-        <v>760000</v>
+        <v>743900</v>
       </c>
       <c r="I18" s="3">
-        <v>713800</v>
+        <v>698700</v>
       </c>
       <c r="J18" s="3">
-        <v>678600</v>
+        <v>664300</v>
       </c>
       <c r="K18" s="3">
         <v>825700</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>75800</v>
+        <v>74200</v>
       </c>
       <c r="E20" s="3">
-        <v>64700</v>
+        <v>63300</v>
       </c>
       <c r="F20" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="G20" s="3">
-        <v>107100</v>
+        <v>104800</v>
       </c>
       <c r="H20" s="3">
-        <v>63000</v>
+        <v>61600</v>
       </c>
       <c r="I20" s="3">
-        <v>47300</v>
+        <v>46300</v>
       </c>
       <c r="J20" s="3">
-        <v>50900</v>
+        <v>49800</v>
       </c>
       <c r="K20" s="3">
         <v>24800</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>904300</v>
+        <v>885500</v>
       </c>
       <c r="E21" s="3">
-        <v>811300</v>
+        <v>794500</v>
       </c>
       <c r="F21" s="3">
-        <v>837700</v>
+        <v>820300</v>
       </c>
       <c r="G21" s="3">
-        <v>966500</v>
+        <v>946400</v>
       </c>
       <c r="H21" s="3">
-        <v>970500</v>
+        <v>950400</v>
       </c>
       <c r="I21" s="3">
-        <v>899900</v>
+        <v>881200</v>
       </c>
       <c r="J21" s="3">
-        <v>838900</v>
+        <v>821400</v>
       </c>
       <c r="K21" s="3">
         <v>948100</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>97200</v>
+        <v>95100</v>
       </c>
       <c r="E22" s="3">
-        <v>89600</v>
+        <v>87800</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>81500</v>
+        <v>79800</v>
       </c>
       <c r="H22" s="3">
-        <v>82800</v>
+        <v>81100</v>
       </c>
       <c r="I22" s="3">
-        <v>62000</v>
+        <v>60700</v>
       </c>
       <c r="J22" s="3">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="K22" s="3">
         <v>18100</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>645600</v>
+        <v>631900</v>
       </c>
       <c r="E23" s="3">
-        <v>562800</v>
+        <v>550900</v>
       </c>
       <c r="F23" s="3">
-        <v>673900</v>
+        <v>659700</v>
       </c>
       <c r="G23" s="3">
-        <v>726600</v>
+        <v>711200</v>
       </c>
       <c r="H23" s="3">
-        <v>740100</v>
+        <v>724500</v>
       </c>
       <c r="I23" s="3">
-        <v>699000</v>
+        <v>684300</v>
       </c>
       <c r="J23" s="3">
-        <v>708000</v>
+        <v>693100</v>
       </c>
       <c r="K23" s="3">
         <v>832300</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>158400</v>
+        <v>155000</v>
       </c>
       <c r="E24" s="3">
-        <v>78100</v>
+        <v>76500</v>
       </c>
       <c r="F24" s="3">
-        <v>111700</v>
+        <v>109300</v>
       </c>
       <c r="G24" s="3">
-        <v>88000</v>
+        <v>86100</v>
       </c>
       <c r="H24" s="3">
-        <v>70100</v>
+        <v>68600</v>
       </c>
       <c r="I24" s="3">
-        <v>51300</v>
+        <v>50200</v>
       </c>
       <c r="J24" s="3">
-        <v>73700</v>
+        <v>72100</v>
       </c>
       <c r="K24" s="3">
         <v>128000</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>487200</v>
+        <v>476900</v>
       </c>
       <c r="E26" s="3">
-        <v>484700</v>
+        <v>474400</v>
       </c>
       <c r="F26" s="3">
-        <v>562300</v>
+        <v>550400</v>
       </c>
       <c r="G26" s="3">
-        <v>638600</v>
+        <v>625100</v>
       </c>
       <c r="H26" s="3">
-        <v>670000</v>
+        <v>655800</v>
       </c>
       <c r="I26" s="3">
-        <v>647800</v>
+        <v>634100</v>
       </c>
       <c r="J26" s="3">
-        <v>634400</v>
+        <v>621000</v>
       </c>
       <c r="K26" s="3">
         <v>704400</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>401400</v>
+        <v>392900</v>
       </c>
       <c r="E27" s="3">
-        <v>375500</v>
+        <v>367600</v>
       </c>
       <c r="F27" s="3">
-        <v>472100</v>
+        <v>462100</v>
       </c>
       <c r="G27" s="3">
-        <v>560700</v>
+        <v>548900</v>
       </c>
       <c r="H27" s="3">
-        <v>558000</v>
+        <v>546200</v>
       </c>
       <c r="I27" s="3">
-        <v>496500</v>
+        <v>486000</v>
       </c>
       <c r="J27" s="3">
-        <v>490700</v>
+        <v>480300</v>
       </c>
       <c r="K27" s="3">
         <v>575400</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-75800</v>
+        <v>-74200</v>
       </c>
       <c r="E32" s="3">
-        <v>-64700</v>
+        <v>-63300</v>
       </c>
       <c r="F32" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G32" s="3">
-        <v>-107100</v>
+        <v>-104800</v>
       </c>
       <c r="H32" s="3">
-        <v>-63000</v>
+        <v>-61600</v>
       </c>
       <c r="I32" s="3">
-        <v>-47300</v>
+        <v>-46300</v>
       </c>
       <c r="J32" s="3">
-        <v>-50900</v>
+        <v>-49800</v>
       </c>
       <c r="K32" s="3">
         <v>-24800</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>401400</v>
+        <v>392900</v>
       </c>
       <c r="E33" s="3">
-        <v>375500</v>
+        <v>367600</v>
       </c>
       <c r="F33" s="3">
-        <v>472100</v>
+        <v>462100</v>
       </c>
       <c r="G33" s="3">
-        <v>560700</v>
+        <v>548900</v>
       </c>
       <c r="H33" s="3">
-        <v>558000</v>
+        <v>546200</v>
       </c>
       <c r="I33" s="3">
-        <v>496500</v>
+        <v>486000</v>
       </c>
       <c r="J33" s="3">
-        <v>490700</v>
+        <v>480300</v>
       </c>
       <c r="K33" s="3">
         <v>575400</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>401400</v>
+        <v>392900</v>
       </c>
       <c r="E35" s="3">
-        <v>375500</v>
+        <v>367600</v>
       </c>
       <c r="F35" s="3">
-        <v>472100</v>
+        <v>462100</v>
       </c>
       <c r="G35" s="3">
-        <v>560700</v>
+        <v>548900</v>
       </c>
       <c r="H35" s="3">
-        <v>558000</v>
+        <v>546200</v>
       </c>
       <c r="I35" s="3">
-        <v>496500</v>
+        <v>486000</v>
       </c>
       <c r="J35" s="3">
-        <v>490700</v>
+        <v>480300</v>
       </c>
       <c r="K35" s="3">
         <v>575400</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,247 +1561,247 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>409400</v>
+        <v>400800</v>
       </c>
       <c r="E41" s="3">
-        <v>3708800</v>
+        <v>3630400</v>
       </c>
       <c r="F41" s="3">
-        <v>3225900</v>
+        <v>3157700</v>
       </c>
       <c r="G41" s="3">
-        <v>534500</v>
+        <v>523200</v>
       </c>
       <c r="H41" s="3">
-        <v>461100</v>
+        <v>451300</v>
       </c>
       <c r="I41" s="3">
-        <v>2687800</v>
+        <v>2631000</v>
       </c>
       <c r="J41" s="3">
-        <v>268500</v>
+        <v>262800</v>
       </c>
       <c r="K41" s="3">
         <v>360300</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1031100</v>
+        <v>1009300</v>
       </c>
       <c r="E42" s="3">
-        <v>1583300</v>
+        <v>1549800</v>
       </c>
       <c r="F42" s="3">
-        <v>2124400</v>
+        <v>2079500</v>
       </c>
       <c r="G42" s="3">
-        <v>1820700</v>
+        <v>1782200</v>
       </c>
       <c r="H42" s="3">
-        <v>2163400</v>
+        <v>2117700</v>
       </c>
       <c r="I42" s="3">
-        <v>1200500</v>
+        <v>1175200</v>
       </c>
       <c r="J42" s="3">
-        <v>1134600</v>
+        <v>1110600</v>
       </c>
       <c r="K42" s="3">
         <v>1300200</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>715500</v>
+        <v>700300</v>
       </c>
       <c r="E43" s="3">
-        <v>1502600</v>
+        <v>1470900</v>
       </c>
       <c r="F43" s="3">
-        <v>1071600</v>
+        <v>1048900</v>
       </c>
       <c r="G43" s="3">
-        <v>1242400</v>
+        <v>1216200</v>
       </c>
       <c r="H43" s="3">
-        <v>1034700</v>
+        <v>1012800</v>
       </c>
       <c r="I43" s="3">
-        <v>2358300</v>
+        <v>2308400</v>
       </c>
       <c r="J43" s="3">
-        <v>832800</v>
+        <v>815200</v>
       </c>
       <c r="K43" s="3">
         <v>834600</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4215600</v>
+        <v>4126400</v>
       </c>
       <c r="E44" s="3">
-        <v>3184500</v>
+        <v>3117100</v>
       </c>
       <c r="F44" s="3">
-        <v>3524600</v>
+        <v>3450100</v>
       </c>
       <c r="G44" s="3">
-        <v>4074700</v>
+        <v>3988500</v>
       </c>
       <c r="H44" s="3">
-        <v>3542300</v>
+        <v>3467400</v>
       </c>
       <c r="I44" s="3">
-        <v>3196400</v>
+        <v>3128800</v>
       </c>
       <c r="J44" s="3">
-        <v>3185000</v>
+        <v>3117700</v>
       </c>
       <c r="K44" s="3">
         <v>2382200</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>337800</v>
+        <v>330700</v>
       </c>
       <c r="E45" s="3">
-        <v>639900</v>
+        <v>626400</v>
       </c>
       <c r="F45" s="3">
-        <v>215600</v>
+        <v>211000</v>
       </c>
       <c r="G45" s="3">
-        <v>355900</v>
+        <v>348400</v>
       </c>
       <c r="H45" s="3">
-        <v>414800</v>
+        <v>406000</v>
       </c>
       <c r="I45" s="3">
-        <v>377300</v>
+        <v>369300</v>
       </c>
       <c r="J45" s="3">
-        <v>328800</v>
+        <v>321900</v>
       </c>
       <c r="K45" s="3">
         <v>312000</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6709300</v>
+        <v>6567500</v>
       </c>
       <c r="E46" s="3">
-        <v>6922300</v>
+        <v>6776000</v>
       </c>
       <c r="F46" s="3">
-        <v>7391700</v>
+        <v>7235400</v>
       </c>
       <c r="G46" s="3">
-        <v>8028300</v>
+        <v>7858600</v>
       </c>
       <c r="H46" s="3">
-        <v>7616300</v>
+        <v>7455300</v>
       </c>
       <c r="I46" s="3">
-        <v>6441900</v>
+        <v>6305700</v>
       </c>
       <c r="J46" s="3">
-        <v>5749700</v>
+        <v>5628200</v>
       </c>
       <c r="K46" s="3">
         <v>5189400</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1933900</v>
+        <v>1893000</v>
       </c>
       <c r="E47" s="3">
-        <v>1578100</v>
+        <v>1544700</v>
       </c>
       <c r="F47" s="3">
-        <v>1331300</v>
+        <v>1303200</v>
       </c>
       <c r="G47" s="3">
-        <v>1111300</v>
+        <v>1087800</v>
       </c>
       <c r="H47" s="3">
-        <v>890500</v>
+        <v>871700</v>
       </c>
       <c r="I47" s="3">
-        <v>832200</v>
+        <v>814600</v>
       </c>
       <c r="J47" s="3">
-        <v>1025300</v>
+        <v>1003700</v>
       </c>
       <c r="K47" s="3">
         <v>1139200</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6455200</v>
+        <v>6318700</v>
       </c>
       <c r="E48" s="3">
-        <v>10983300</v>
+        <v>10751000</v>
       </c>
       <c r="F48" s="3">
-        <v>5504700</v>
+        <v>5388300</v>
       </c>
       <c r="G48" s="3">
-        <v>5720800</v>
+        <v>5599800</v>
       </c>
       <c r="H48" s="3">
-        <v>5919000</v>
+        <v>5793900</v>
       </c>
       <c r="I48" s="3">
-        <v>11149100</v>
+        <v>10913400</v>
       </c>
       <c r="J48" s="3">
-        <v>4661300</v>
+        <v>4562700</v>
       </c>
       <c r="K48" s="3">
         <v>4555700</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1844,19 +1809,19 @@
         <v>1200</v>
       </c>
       <c r="E49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F49" s="3">
         <v>2100</v>
       </c>
       <c r="G49" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I49" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J49" s="3">
         <v>3100</v>
@@ -1866,7 +1831,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300400</v>
+        <v>294000</v>
       </c>
       <c r="E52" s="3">
-        <v>647100</v>
+        <v>633400</v>
       </c>
       <c r="F52" s="3">
-        <v>280100</v>
+        <v>274200</v>
       </c>
       <c r="G52" s="3">
-        <v>116900</v>
+        <v>114500</v>
       </c>
       <c r="H52" s="3">
-        <v>97100</v>
+        <v>95100</v>
       </c>
       <c r="I52" s="3">
-        <v>103300</v>
+        <v>101100</v>
       </c>
       <c r="J52" s="3">
-        <v>69300</v>
+        <v>67800</v>
       </c>
       <c r="K52" s="3">
         <v>74100</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15400100</v>
+        <v>15074500</v>
       </c>
       <c r="E54" s="3">
-        <v>14278300</v>
+        <v>13976400</v>
       </c>
       <c r="F54" s="3">
-        <v>14505100</v>
+        <v>14198400</v>
       </c>
       <c r="G54" s="3">
-        <v>14981900</v>
+        <v>14665100</v>
       </c>
       <c r="H54" s="3">
-        <v>14526200</v>
+        <v>14219000</v>
       </c>
       <c r="I54" s="3">
-        <v>12943200</v>
+        <v>12669600</v>
       </c>
       <c r="J54" s="3">
-        <v>11508800</v>
+        <v>11265500</v>
       </c>
       <c r="K54" s="3">
         <v>10958400</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>108400</v>
+        <v>106100</v>
       </c>
       <c r="E57" s="3">
-        <v>1305200</v>
+        <v>1277600</v>
       </c>
       <c r="F57" s="3">
-        <v>129800</v>
+        <v>127000</v>
       </c>
       <c r="G57" s="3">
-        <v>165700</v>
+        <v>162200</v>
       </c>
       <c r="H57" s="3">
-        <v>126600</v>
+        <v>123900</v>
       </c>
       <c r="I57" s="3">
-        <v>1101300</v>
+        <v>1078000</v>
       </c>
       <c r="J57" s="3">
-        <v>200100</v>
+        <v>195900</v>
       </c>
       <c r="K57" s="3">
         <v>155000</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1099700</v>
+        <v>1076500</v>
       </c>
       <c r="E58" s="3">
-        <v>1024800</v>
+        <v>1003200</v>
       </c>
       <c r="F58" s="3">
-        <v>1416300</v>
+        <v>1386300</v>
       </c>
       <c r="G58" s="3">
-        <v>1517100</v>
+        <v>1485100</v>
       </c>
       <c r="H58" s="3">
-        <v>1748400</v>
+        <v>1711500</v>
       </c>
       <c r="I58" s="3">
-        <v>1550100</v>
+        <v>1517300</v>
       </c>
       <c r="J58" s="3">
-        <v>736000</v>
+        <v>720400</v>
       </c>
       <c r="K58" s="3">
         <v>1081400</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1080400</v>
+        <v>1057600</v>
       </c>
       <c r="E59" s="3">
-        <v>1567200</v>
+        <v>1534100</v>
       </c>
       <c r="F59" s="3">
-        <v>1468700</v>
+        <v>1437700</v>
       </c>
       <c r="G59" s="3">
-        <v>1142700</v>
+        <v>1118500</v>
       </c>
       <c r="H59" s="3">
-        <v>1042900</v>
+        <v>1020900</v>
       </c>
       <c r="I59" s="3">
-        <v>956000</v>
+        <v>935800</v>
       </c>
       <c r="J59" s="3">
-        <v>785000</v>
+        <v>768400</v>
       </c>
       <c r="K59" s="3">
         <v>828400</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2288600</v>
+        <v>2240200</v>
       </c>
       <c r="E60" s="3">
-        <v>2446100</v>
+        <v>2394400</v>
       </c>
       <c r="F60" s="3">
-        <v>2744300</v>
+        <v>2686300</v>
       </c>
       <c r="G60" s="3">
-        <v>2825500</v>
+        <v>2765800</v>
       </c>
       <c r="H60" s="3">
-        <v>2917900</v>
+        <v>2856200</v>
       </c>
       <c r="I60" s="3">
-        <v>1802700</v>
+        <v>1764600</v>
       </c>
       <c r="J60" s="3">
-        <v>1721100</v>
+        <v>1684700</v>
       </c>
       <c r="K60" s="3">
         <v>2064800</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3737500</v>
+        <v>3658500</v>
       </c>
       <c r="E61" s="3">
-        <v>2769200</v>
+        <v>2710700</v>
       </c>
       <c r="F61" s="3">
-        <v>2916200</v>
+        <v>2854500</v>
       </c>
       <c r="G61" s="3">
-        <v>3371100</v>
+        <v>3299900</v>
       </c>
       <c r="H61" s="3">
-        <v>3293200</v>
+        <v>3223500</v>
       </c>
       <c r="I61" s="3">
-        <v>3244700</v>
+        <v>3176100</v>
       </c>
       <c r="J61" s="3">
-        <v>2557700</v>
+        <v>2503600</v>
       </c>
       <c r="K61" s="3">
         <v>2145400</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>323800</v>
+        <v>316900</v>
       </c>
       <c r="E62" s="3">
-        <v>802900</v>
+        <v>785900</v>
       </c>
       <c r="F62" s="3">
-        <v>847800</v>
+        <v>829900</v>
       </c>
       <c r="G62" s="3">
-        <v>517300</v>
+        <v>506400</v>
       </c>
       <c r="H62" s="3">
-        <v>369700</v>
+        <v>361900</v>
       </c>
       <c r="I62" s="3">
-        <v>444400</v>
+        <v>435000</v>
       </c>
       <c r="J62" s="3">
-        <v>404300</v>
+        <v>395800</v>
       </c>
       <c r="K62" s="3">
         <v>379300</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7996600</v>
+        <v>7827500</v>
       </c>
       <c r="E66" s="3">
-        <v>7353600</v>
+        <v>7198100</v>
       </c>
       <c r="F66" s="3">
-        <v>7789700</v>
+        <v>7625000</v>
       </c>
       <c r="G66" s="3">
-        <v>8348800</v>
+        <v>8172300</v>
       </c>
       <c r="H66" s="3">
-        <v>8325000</v>
+        <v>8149000</v>
       </c>
       <c r="I66" s="3">
-        <v>7242500</v>
+        <v>7089300</v>
       </c>
       <c r="J66" s="3">
-        <v>6123500</v>
+        <v>5994000</v>
       </c>
       <c r="K66" s="3">
         <v>5958500</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,27 +2383,27 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>243500</v>
+        <v>238300</v>
       </c>
       <c r="E70" s="3">
-        <v>243500</v>
+        <v>238300</v>
       </c>
       <c r="F70" s="3">
-        <v>243500</v>
+        <v>238300</v>
       </c>
       <c r="G70" s="3">
-        <v>243500</v>
+        <v>238300</v>
       </c>
       <c r="H70" s="3">
-        <v>243500</v>
+        <v>238300</v>
       </c>
       <c r="I70" s="3">
-        <v>243500</v>
+        <v>238300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6038700</v>
+        <v>5911100</v>
       </c>
       <c r="E72" s="3">
-        <v>5513500</v>
+        <v>5396900</v>
       </c>
       <c r="F72" s="3">
-        <v>5237000</v>
+        <v>5126300</v>
       </c>
       <c r="G72" s="3">
-        <v>5398700</v>
+        <v>5284600</v>
       </c>
       <c r="H72" s="3">
-        <v>4960800</v>
+        <v>4855900</v>
       </c>
       <c r="I72" s="3">
-        <v>8718600</v>
+        <v>8534200</v>
       </c>
       <c r="J72" s="3">
-        <v>4198500</v>
+        <v>4109800</v>
       </c>
       <c r="K72" s="3">
         <v>3769000</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7160000</v>
+        <v>7008700</v>
       </c>
       <c r="E76" s="3">
-        <v>6681200</v>
+        <v>6540000</v>
       </c>
       <c r="F76" s="3">
-        <v>6471900</v>
+        <v>6335100</v>
       </c>
       <c r="G76" s="3">
-        <v>6389500</v>
+        <v>6254500</v>
       </c>
       <c r="H76" s="3">
-        <v>5957700</v>
+        <v>5831800</v>
       </c>
       <c r="I76" s="3">
-        <v>5457200</v>
+        <v>5341900</v>
       </c>
       <c r="J76" s="3">
-        <v>5385300</v>
+        <v>5271500</v>
       </c>
       <c r="K76" s="3">
         <v>4999900</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>401400</v>
+        <v>392900</v>
       </c>
       <c r="E81" s="3">
-        <v>375500</v>
+        <v>367600</v>
       </c>
       <c r="F81" s="3">
-        <v>472100</v>
+        <v>462100</v>
       </c>
       <c r="G81" s="3">
-        <v>560700</v>
+        <v>548900</v>
       </c>
       <c r="H81" s="3">
-        <v>558000</v>
+        <v>546200</v>
       </c>
       <c r="I81" s="3">
-        <v>496500</v>
+        <v>486000</v>
       </c>
       <c r="J81" s="3">
-        <v>490700</v>
+        <v>480300</v>
       </c>
       <c r="K81" s="3">
         <v>575400</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>161400</v>
+        <v>157900</v>
       </c>
       <c r="E83" s="3">
-        <v>158700</v>
+        <v>155300</v>
       </c>
       <c r="F83" s="3">
-        <v>163600</v>
+        <v>160100</v>
       </c>
       <c r="G83" s="3">
-        <v>158300</v>
+        <v>154900</v>
       </c>
       <c r="H83" s="3">
-        <v>147500</v>
+        <v>144400</v>
       </c>
       <c r="I83" s="3">
-        <v>138700</v>
+        <v>135800</v>
       </c>
       <c r="J83" s="3">
-        <v>109300</v>
+        <v>107000</v>
       </c>
       <c r="K83" s="3">
         <v>97700</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-442100</v>
+        <v>-432800</v>
       </c>
       <c r="E89" s="3">
-        <v>801900</v>
+        <v>784900</v>
       </c>
       <c r="F89" s="3">
-        <v>870800</v>
+        <v>852300</v>
       </c>
       <c r="G89" s="3">
-        <v>57400</v>
+        <v>56200</v>
       </c>
       <c r="H89" s="3">
-        <v>215400</v>
+        <v>210900</v>
       </c>
       <c r="I89" s="3">
-        <v>499000</v>
+        <v>488400</v>
       </c>
       <c r="J89" s="3">
-        <v>48100</v>
+        <v>47100</v>
       </c>
       <c r="K89" s="3">
         <v>719900</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-148300</v>
+        <v>-145100</v>
       </c>
       <c r="E91" s="3">
-        <v>-80600</v>
+        <v>-78900</v>
       </c>
       <c r="F91" s="3">
-        <v>-151100</v>
+        <v>-147900</v>
       </c>
       <c r="G91" s="3">
-        <v>-168700</v>
+        <v>-165100</v>
       </c>
       <c r="H91" s="3">
-        <v>-618400</v>
+        <v>-605300</v>
       </c>
       <c r="I91" s="3">
-        <v>-182000</v>
+        <v>-178200</v>
       </c>
       <c r="J91" s="3">
-        <v>-189600</v>
+        <v>-185600</v>
       </c>
       <c r="K91" s="3">
         <v>-288700</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1274700</v>
+        <v>-1247700</v>
       </c>
       <c r="E94" s="3">
-        <v>-62900</v>
+        <v>-61600</v>
       </c>
       <c r="F94" s="3">
-        <v>234500</v>
+        <v>229600</v>
       </c>
       <c r="G94" s="3">
-        <v>383700</v>
+        <v>375600</v>
       </c>
       <c r="H94" s="3">
-        <v>-30800</v>
+        <v>-30200</v>
       </c>
       <c r="I94" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="J94" s="3">
-        <v>-260200</v>
+        <v>-254700</v>
       </c>
       <c r="K94" s="3">
         <v>38600</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-210400</v>
+        <v>-205900</v>
       </c>
       <c r="E96" s="3">
-        <v>-179800</v>
+        <v>-176000</v>
       </c>
       <c r="F96" s="3">
-        <v>-175100</v>
+        <v>-171400</v>
       </c>
       <c r="G96" s="3">
-        <v>-200000</v>
+        <v>-195800</v>
       </c>
       <c r="H96" s="3">
-        <v>-202700</v>
+        <v>-198400</v>
       </c>
       <c r="I96" s="3">
-        <v>-236000</v>
+        <v>-231000</v>
       </c>
       <c r="J96" s="3">
-        <v>-133900</v>
+        <v>-131100</v>
       </c>
       <c r="K96" s="3">
         <v>-181200</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,37 +3180,37 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>661800</v>
+        <v>647800</v>
       </c>
       <c r="E100" s="3">
-        <v>-692200</v>
+        <v>-677600</v>
       </c>
       <c r="F100" s="3">
-        <v>-988900</v>
+        <v>-968000</v>
       </c>
       <c r="G100" s="3">
-        <v>-674100</v>
+        <v>-659900</v>
       </c>
       <c r="H100" s="3">
-        <v>544700</v>
+        <v>533200</v>
       </c>
       <c r="I100" s="3">
-        <v>-122400</v>
+        <v>-119900</v>
       </c>
       <c r="J100" s="3">
-        <v>-43700</v>
+        <v>-42700</v>
       </c>
       <c r="K100" s="3">
         <v>-307200</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3253,52 +3218,52 @@
         <v>-4300</v>
       </c>
       <c r="E101" s="3">
-        <v>-22900</v>
+        <v>-22400</v>
       </c>
       <c r="F101" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="G101" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H101" s="3">
-        <v>12800</v>
+        <v>12500</v>
       </c>
       <c r="I101" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="J101" s="3">
-        <v>-10000</v>
+        <v>-9800</v>
       </c>
       <c r="K101" s="3">
         <v>-1100</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1059300</v>
+        <v>-1036900</v>
       </c>
       <c r="E102" s="3">
-        <v>23800</v>
+        <v>23300</v>
       </c>
       <c r="F102" s="3">
-        <v>111500</v>
+        <v>109100</v>
       </c>
       <c r="G102" s="3">
-        <v>-228000</v>
+        <v>-223100</v>
       </c>
       <c r="H102" s="3">
-        <v>742000</v>
+        <v>726300</v>
       </c>
       <c r="I102" s="3">
-        <v>380400</v>
+        <v>372300</v>
       </c>
       <c r="J102" s="3">
-        <v>-265800</v>
+        <v>-260100</v>
       </c>
       <c r="K102" s="3">
         <v>450100</v>
